--- a/SEROFOI/summary_models/USA-026-04_VPH18.xlsx
+++ b/SEROFOI/summary_models/USA-026-04_VPH18.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83596155-1811-453C-B274-CA07638AC610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFEFB78-686D-41BB-842F-62B066BC520A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,10 +88,10 @@
     <t>Convergencia</t>
   </si>
   <si>
-    <t>Tasa de serorreversion</t>
-  </si>
-  <si>
-    <t>Tasa de serorreversión Rhat</t>
+    <t>Tasa de seroreversion</t>
+  </si>
+  <si>
+    <t>Tasa de serereversión Rhat</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +459,7 @@
     <col min="1" max="1" width="27.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
   </cols>
   <sheetData>
